--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N2">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q2">
-        <v>20.85416832814989</v>
+        <v>0.2065480225968889</v>
       </c>
       <c r="R2">
-        <v>187.687514953349</v>
+        <v>1.858932203372</v>
       </c>
       <c r="S2">
-        <v>0.05045266685951708</v>
+        <v>0.0007156418533566494</v>
       </c>
       <c r="T2">
-        <v>0.05045266685951709</v>
+        <v>0.0007156418533566493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q3">
-        <v>58.74498677398099</v>
+        <v>0.7188578711419999</v>
       </c>
       <c r="R3">
-        <v>528.7048809658289</v>
+        <v>6.469720840278</v>
       </c>
       <c r="S3">
-        <v>0.142122246293259</v>
+        <v>0.002490678790995238</v>
       </c>
       <c r="T3">
-        <v>0.142122246293259</v>
+        <v>0.002490678790995238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N4">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q4">
-        <v>40.68179621744422</v>
+        <v>0.3567778189455555</v>
       </c>
       <c r="R4">
-        <v>366.136165956998</v>
+        <v>3.21100037051</v>
       </c>
       <c r="S4">
-        <v>0.09842181570170373</v>
+        <v>0.00123615388022885</v>
       </c>
       <c r="T4">
-        <v>0.09842181570170373</v>
+        <v>0.00123615388022885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.300919</v>
       </c>
       <c r="I5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N5">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O5">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P5">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q5">
-        <v>42.65530568198744</v>
+        <v>34.52462765306645</v>
       </c>
       <c r="R5">
-        <v>383.897751137887</v>
+        <v>310.721648877598</v>
       </c>
       <c r="S5">
-        <v>0.1031963439395094</v>
+        <v>0.1196199712272668</v>
       </c>
       <c r="T5">
-        <v>0.1031963439395094</v>
+        <v>0.1196199712272668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.300919</v>
       </c>
       <c r="I6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q6">
         <v>120.157530556903</v>
@@ -818,10 +818,10 @@
         <v>1081.417775012127</v>
       </c>
       <c r="S6">
-        <v>0.2906981359533073</v>
+        <v>0.4163184753906983</v>
       </c>
       <c r="T6">
-        <v>0.2906981359533073</v>
+        <v>0.4163184753906983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.300919</v>
       </c>
       <c r="I7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N7">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q7">
-        <v>83.21091620829711</v>
+        <v>59.63562952141277</v>
       </c>
       <c r="R7">
-        <v>748.898245874674</v>
+        <v>536.720665692715</v>
       </c>
       <c r="S7">
-        <v>0.2013128775250879</v>
+        <v>0.2066238732291653</v>
       </c>
       <c r="T7">
-        <v>0.2013128775250879</v>
+        <v>0.2066238732291653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H8">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N8">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O8">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P8">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q8">
-        <v>8.155140263167889</v>
+        <v>11.76273699711267</v>
       </c>
       <c r="R8">
-        <v>73.396262368511</v>
+        <v>105.864632974014</v>
       </c>
       <c r="S8">
-        <v>0.01972980022103554</v>
+        <v>0.04075520452495163</v>
       </c>
       <c r="T8">
-        <v>0.01972980022103554</v>
+        <v>0.04075520452495162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H9">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>42.742233</v>
       </c>
       <c r="O9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q9">
-        <v>22.972558740359</v>
+        <v>40.938354045879</v>
       </c>
       <c r="R9">
-        <v>206.753028663231</v>
+        <v>368.445186412911</v>
       </c>
       <c r="S9">
-        <v>0.05557770680662983</v>
+        <v>0.1418420723394755</v>
       </c>
       <c r="T9">
-        <v>0.05557770680662982</v>
+        <v>0.1418420723394755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H10">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N10">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q10">
-        <v>15.90884609208022</v>
+        <v>20.31819815022167</v>
       </c>
       <c r="R10">
-        <v>143.179614828722</v>
+        <v>182.863783351995</v>
       </c>
       <c r="S10">
-        <v>0.03848840669995023</v>
+        <v>0.07039792876386168</v>
       </c>
       <c r="T10">
-        <v>0.03848840669995021</v>
+        <v>0.07039792876386168</v>
       </c>
     </row>
   </sheetData>
